--- a/output/ejecucion_2/results/base_19_21/base_19_21_results_training.xlsx
+++ b/output/ejecucion_2/results/base_19_21/base_19_21_results_training.xlsx
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.994</v>
       </c>
       <c r="E2">
         <v>0.988</v>
@@ -509,7 +509,7 @@
         <v>0.74</v>
       </c>
       <c r="D3">
-        <v>0.174</v>
+        <v>0.545</v>
       </c>
       <c r="E3">
         <v>0.165</v>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.997</v>
+        <v>0.998</v>
       </c>
       <c r="E4">
         <v>0.997</v>
@@ -614,7 +614,7 @@
         <v>0.846</v>
       </c>
       <c r="D6">
-        <v>0.244</v>
+        <v>0.582</v>
       </c>
       <c r="E6">
         <v>0.288</v>
@@ -649,7 +649,7 @@
         <v>0.833</v>
       </c>
       <c r="D7">
-        <v>0.279</v>
+        <v>0.598</v>
       </c>
       <c r="E7">
         <v>0.279</v>
@@ -684,7 +684,7 @@
         <v>0.833</v>
       </c>
       <c r="D8">
-        <v>0.283</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
         <v>0.282</v>
@@ -719,7 +719,7 @@
         <v>0.883</v>
       </c>
       <c r="D9">
-        <v>0.548</v>
+        <v>0.697</v>
       </c>
       <c r="E9">
         <v>0.475</v>
